--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universitas Muhammadiyah Malang\Semester 7\Machine Learning\Modul 1\PraktikumML_073-076\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85197D2F-20B9-4DF7-B081-CEF32EF98929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA3FBFC-DF67-4B7A-A981-C659394631EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C0484A1-A412-45AA-BB4E-F656230E54A1}"/>
   </bookViews>
@@ -108,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,13 +428,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -460,6 +461,9 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="1">
+        <v>44511</v>
+      </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOKUMEN\Kuliah\Semester7\Prak. Pembelajaran Mesin\PraktikumML_073-076\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universitas Muhammadiyah Malang\Semester 7\Machine Learning\Modul 1\PraktikumML_073-076\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55789070-DCCE-4B6E-AF4C-894BB99E4DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7987BD30-7C63-445A-A803-6BA8D15E9F8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C0484A1-A412-45AA-BB4E-F656230E54A1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Task</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Jody</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +440,7 @@
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -462,16 +465,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>44500</v>
+        <v>44492</v>
       </c>
       <c r="C2" s="1">
-        <v>44506</v>
+        <v>44492</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universitas Muhammadiyah Malang\Semester 7\Machine Learning\Modul 1\PraktikumML_073-076\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOKUMEN\Kuliah\Semester7\Pembelajaran Mesin\Prak. Pembelajaran Mesin\PraktikumML_073-076\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7987BD30-7C63-445A-A803-6BA8D15E9F8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D468545-8CD8-4A48-B08F-ACF4FFB86177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C0484A1-A412-45AA-BB4E-F656230E54A1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Task</t>
   </si>
@@ -45,24 +45,15 @@
     <t>Prepocessing Data</t>
   </si>
   <si>
-    <t>Data Cleaning</t>
-  </si>
-  <si>
     <t>Modelling CNN</t>
   </si>
   <si>
-    <t>Modelling CNN (vgg19)</t>
-  </si>
-  <si>
     <t>Frontend Web</t>
   </si>
   <si>
     <t>Config Flask</t>
   </si>
   <si>
-    <t>ongoing</t>
-  </si>
-  <si>
     <t>Aries</t>
   </si>
   <si>
@@ -70,13 +61,19 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>On Going</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +87,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -99,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -107,13 +112,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,142 +450,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A325FF50-11B5-488F-BAC0-85EF13CC405C}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>44492</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>44492</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
-        <v>44507</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44878</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="2">
+        <v>44494</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44502</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
-        <v>44514</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44520</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+      <c r="B4" s="2">
+        <v>44528</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44536</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
-        <v>44521</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44527</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44528</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44536</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B5" s="2">
+        <v>44537</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44543</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44537</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44543</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOKUMEN\Kuliah\Semester7\Pembelajaran Mesin\Prak. Pembelajaran Mesin\PraktikumML_073-076\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOKUMEN\Kuliah\Semester7\Pembelajaran Mesin\Prak. Pembelajaran Mesin\Tugas\PraktikumML_073-076\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D468545-8CD8-4A48-B08F-ACF4FFB86177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3567384-095B-4C58-B37A-F70B0994F5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C0484A1-A412-45AA-BB4E-F656230E54A1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Task</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Modelling CNN</t>
   </si>
   <si>
-    <t>Frontend Web</t>
-  </si>
-  <si>
-    <t>Config Flask</t>
-  </si>
-  <si>
     <t>Aries</t>
   </si>
   <si>
@@ -63,10 +57,13 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Waiting</t>
-  </si>
-  <si>
     <t>On Going</t>
+  </si>
+  <si>
+    <t>Modelling CNN with overfiting handiling</t>
+  </si>
+  <si>
+    <t>Model Deploymet</t>
   </si>
 </sst>
 </file>
@@ -450,15 +447,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A325FF50-11B5-488F-BAC0-85EF13CC405C}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
@@ -493,10 +490,10 @@
         <v>44492</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -510,45 +507,59 @@
         <v>44502</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>44528</v>
+        <v>44508</v>
       </c>
       <c r="C4" s="2">
-        <v>44536</v>
+        <v>44509</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>44537</v>
+        <v>44510</v>
       </c>
       <c r="C5" s="2">
-        <v>44543</v>
+        <v>44512</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOKUMEN\Kuliah\Semester7\Pembelajaran Mesin\Prak. Pembelajaran Mesin\Tugas\PraktikumML_073-076\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3567384-095B-4C58-B37A-F70B0994F5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D56F428-3814-431E-93AD-0874ECCBE9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C0484A1-A412-45AA-BB4E-F656230E54A1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Task</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Model Deploymet</t>
+  </si>
+  <si>
+    <t>Modelling Alexnet with Hyperparameter</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -124,15 +127,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A325FF50-11B5-488F-BAC0-85EF13CC405C}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,27 +548,37 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44509</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44534</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2">
-        <v>44510</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44512</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B6" s="2">
+        <v>44545</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44558</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -561,6 +587,13 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOKUMEN\Kuliah\Semester7\Pembelajaran Mesin\Prak. Pembelajaran Mesin\Tugas\PraktikumML_073-076\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOKUMEN\Kuliah\Semester7\Pembelajaran Mesin\Prak. Pembelajaran Mesin\PraktikumML_073-076\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D56F428-3814-431E-93AD-0874ECCBE9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388AC19A-85CE-434F-83EB-EAF46FB90CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C0484A1-A412-45AA-BB4E-F656230E54A1}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <t>Model Deploymet</t>
   </si>
   <si>
-    <t>Modelling Alexnet with Hyperparameter</t>
+    <t>Modelling Alexnet and Densenet201</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
